--- a/biology/Zoologie/Camponotus/Camponotus.xlsx
+++ b/biology/Zoologie/Camponotus/Camponotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palaeosminthurus
 Camponotus est un genre de fourmis de la famille des formicidés comprenant notamment la fourmi grand galop (Camponotus maculatus). Il compte au moins 965 espèces.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Camponotus est décrit en 1861 par l'entomologiste autrichien Gustav Mayr (1830-1908)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Camponotus est décrit en 1861 par l'entomologiste autrichien Gustav Mayr (1830-1908),.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Camponotus a des relations de commensalisme et de mutualisme avec le fenouil commun et des pucerons. Le fenouil sauvage sert de plante hôte aux fourmis Camponotus et aux pucerons. Les fourmis se nourrissent du miellat produit par les pucerons à partir de la sève de cette plante, mais elles gèrent aussi la population de pucerons, en retirant les individus morts et en réduisant les populations de pucerons quand leur nombre met en danger la plante-hôte[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Camponotus a des relations de commensalisme et de mutualisme avec le fenouil commun et des pucerons. Le fenouil sauvage sert de plante hôte aux fourmis Camponotus et aux pucerons. Les fourmis se nourrissent du miellat produit par les pucerons à partir de la sève de cette plante, mais elles gèrent aussi la population de pucerons, en retirant les individus morts et en réduisant les populations de pucerons quand leur nombre met en danger la plante-hôte.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Camponotus abditus Forel, 1899
@@ -1562,9 +1580,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database ou Fossilworks, les espèces fossiles s'établissent à[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database ou Fossilworks, les espèces fossiles s'établissent à :
 †Camponotus ambon Zhang 1989
 †Camponotus ampullosus Zhang 1989
 †Camponotus cockerelli Donisthorpe 1920
